--- a/Math/PerfTests/MultPerf__001.xlsx
+++ b/Math/PerfTests/MultPerf__001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Softellect\Math\PerfTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D86753-56A2-4074-B513-C348822CFB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A5E79B-F5A5-492D-837E-1690BC5D7D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{49DCBAA9-E9FC-4A47-9354-07622964DADA}"/>
   </bookViews>
@@ -60,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +68,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,11 +103,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41D334A-E88A-41AC-BED6-5C7D53ADD801}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -840,32 +868,32 @@
         <f t="shared" si="2"/>
         <v>15.1914</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="4">
         <v>100</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="4">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="5">
         <f>(AB4/AB$2)^AC4</f>
         <v>16</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="6">
         <v>11044</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="6">
         <v>4075408</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="5">
         <f>AE4/AE$2</f>
         <v>15.025850340136055</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH4" s="7">
         <f t="shared" si="3"/>
         <v>2.7099127253025953E-5</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="5">
         <f t="shared" si="4"/>
         <v>4.0754080000000004</v>
       </c>
@@ -1124,61 +1152,61 @@
         <f t="shared" si="8"/>
         <v>2.471349217950592E-5</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="12">
         <v>500</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="13">
         <f t="shared" si="21"/>
         <v>25</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="14">
         <v>40</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="14">
         <v>27364</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="13">
         <f t="shared" ref="O7:O12" si="28">M7/M$2</f>
         <v>20</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="15">
         <f t="shared" si="0"/>
         <v>2.9235491887151001E-6</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="13">
         <f t="shared" si="1"/>
         <v>54.728000000000002</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="8">
         <v>500</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="8">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="9">
         <f t="shared" si="23"/>
         <v>125</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="10">
         <v>21541</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="10">
         <v>9580624</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="9">
         <f t="shared" ref="X7:X12" si="29">V7/V$2</f>
         <v>113.97354497354497</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="11">
         <f t="shared" si="15"/>
         <v>4.4967843430657547E-6</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="9">
         <f t="shared" si="2"/>
         <v>38.322496000000001</v>
       </c>
@@ -1602,32 +1630,32 @@
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="J12">
+      <c r="J12" s="8">
         <v>1000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <f t="shared" ref="K12" si="42">+K11</f>
         <v>2</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="9">
         <f t="shared" ref="L12" si="43">(J12/J$2)^K12</f>
         <v>100</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="10">
         <v>210</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="10">
         <v>109724</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="9">
         <f t="shared" si="28"/>
         <v>105</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="11">
         <f t="shared" si="0"/>
         <v>1.913893040720353E-6</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="9">
         <f t="shared" si="1"/>
         <v>109.724</v>
       </c>
